--- a/similarities/split_global/harmonic_similarity_timestamps_293.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_293.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.360000', '0:00:08.620000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.660000', '0:00:31.860000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:23.500000', '0:02:56.780000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:40.100000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:00:16.540000', '0:00:34.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:35.800000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3', 'B:min7', 'D/2', 'A', 'D/5'], ['D', 'A', 'D', 'A/3', 'B:min7', 'D/2', 'A']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3', 'A:min7', 'C/5', 'G', 'C'], ['C/5', 'G', 'C', 'G/3', 'A:min7', 'C/5', 'G']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:53.495000', '0:02:00.256000'), ('0:01:52.619000', '0:01:59.402000')]</t>
+          <t>('0:01:30.740000', '0:01:49.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:35.056893'), ('0:00:27.476822', '0:00:39.886643')]</t>
+          <t>('0:00:30.800000', '0:00:45.300000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=113.495', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=112.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:42.320000')]</t>
+          <t>('0:00:47.680000', '0:00:56.480000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
+          <t>('0:00:08.240000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=110.32']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:21.720000', '0:00:24.960000')]</t>
+          <t>('0:00:17.120000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:56.440000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:20.140000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:44.700000')]</t>
+          <t>('0:00:31.140000', '0:00:41.420000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:27.580000', '0:03:02.300000')]</t>
+          <t>('0:01:03.840000', '0:01:06.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=31.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
+          <t>['F:7', 'Bb', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:dim7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:02:07.006105')]</t>
+          <t>('0:00:01.760000', '0:00:03.130000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:04:03.620000', '0:04:06.710000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=243.62</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.740000', '0:00:58.460000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:06.820000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab'], ['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'A:min/b3', 'E'], ['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:02.570000', '0:02:04.490000'), ('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:19.480000', '0:00:31.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:23.370907', '0:00:27.840748'), ('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:54.400000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=23.370907', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['A', 'E', 'E:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'F:7/D#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:03.682000')]</t>
+          <t>('0:01:32.241000', '0:01:38.929000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:03.740000', '0:01:09.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=63.74</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
